--- a/STIK KEL 3.xlsx
+++ b/STIK KEL 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f59b2875d816964/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AED7C6EA-4E80-4AC0-B4BB-CE82E4DEF203}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{76B2BE9E-CD9B-4EA2-B259-7E6AE1E48750}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{76B2BE9E-CD9B-4EA2-B259-7E6AE1E48750}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,16 +45,16 @@
     <t xml:space="preserve">Target </t>
   </si>
   <si>
-    <t>Artha Cipta Sarana CV</t>
-  </si>
-  <si>
-    <t>PT. Bantar Citalahab</t>
-  </si>
-  <si>
     <t>Berdikari</t>
   </si>
   <si>
-    <t xml:space="preserve">PT. Bodjong Asih </t>
+    <t xml:space="preserve">Artha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asih </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bantar </t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/STIK KEL 3.xlsx
+++ b/STIK KEL 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f59b2875d816964/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AED7C6EA-4E80-4AC0-B4BB-CE82E4DEF203}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{477AAB3D-D738-4793-B031-A76B037FA47A}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{76B2BE9E-CD9B-4EA2-B259-7E6AE1E48750}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Source</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">Target </t>
-  </si>
-  <si>
-    <t>Berdikari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asih </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bantar </t>
   </si>
 </sst>
 </file>
@@ -96,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +407,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,32 +428,32 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+      <c r="B4" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/STIK KEL 3.xlsx
+++ b/STIK KEL 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f59b2875d816964/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{477AAB3D-D738-4793-B031-A76B037FA47A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7C855FF5-5C78-47DA-94F9-1A3A41EEBEBD}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{76B2BE9E-CD9B-4EA2-B259-7E6AE1E48750}"/>
   </bookViews>
@@ -25,21 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>Teh oolong</t>
-  </si>
-  <si>
-    <t>Teh hitam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teh hijau </t>
-  </si>
-  <si>
-    <t>Teh putih</t>
   </si>
   <si>
     <t xml:space="preserve">Target </t>
@@ -84,9 +72,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,7 +394,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,38 +408,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
         <v>30</v>
       </c>
     </row>
